--- a/OREI_files/40-herd data/Outlining 40-herd manuscript.xlsx
+++ b/OREI_files/40-herd data/Outlining 40-herd manuscript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{C1D3857C-7890-4AC3-B3DF-E4E066F9738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D60AD9F-A8D9-476D-80C1-1B8769DF7629}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{C1D3857C-7890-4AC3-B3DF-E4E066F9738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6997877B-A2EF-43EA-A884-B4A4B19A6FFD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{17818DE0-B265-48C2-8735-0D191CA21533}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Bulk tank milk</t>
   </si>
@@ -438,6 +438,15 @@
   </si>
   <si>
     <t>Milking hygiene practices, bedding management practices, herd information, hygiene scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHIA data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On lab computer?, in Excel sheet </t>
+  </si>
+  <si>
+    <t>New, chronic, cure, uninfected from test date closest to visit; pop avg and weighted avg SCC? Depends on reports</t>
   </si>
 </sst>
 </file>
@@ -588,9 +597,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -601,6 +607,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B590773-AD2A-4AB3-9CD2-0FB11602F121}">
-  <dimension ref="A2:R34"/>
+  <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -948,25 +957,25 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
       <c r="R2" s="1" t="s">
         <v>25</v>
       </c>
@@ -978,19 +987,19 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
       <c r="R3" t="s">
         <v>26</v>
       </c>
@@ -1002,19 +1011,19 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
       <c r="R4" t="s">
         <v>27</v>
       </c>
@@ -1026,18 +1035,18 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
       <c r="R5" t="s">
         <v>28</v>
       </c>
@@ -1046,18 +1055,18 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
@@ -1094,80 +1103,95 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="4" t="s">
+    <row r="14" spans="1:18">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="1" t="s">
+    <row r="30" spans="1:3">
+      <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="39.5" customHeight="1">
-      <c r="C30" s="8" t="s">
+    <row r="31" spans="1:3" ht="39.5" customHeight="1">
+      <c r="C31" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="41.5" customHeight="1">
-      <c r="C31" s="8" t="s">
+    <row r="32" spans="1:3" ht="41.5" customHeight="1">
+      <c r="C32" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="33.5" customHeight="1">
-      <c r="C32" s="10" t="s">
+    <row r="33" spans="3:3" ht="33.5" customHeight="1">
+      <c r="C33" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="325.5">
-      <c r="C33" s="9" t="s">
+    <row r="34" spans="3:3" ht="294.5">
+      <c r="C34" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="81" customHeight="1">
-      <c r="C34" s="11" t="s">
+    <row r="35" spans="3:3" ht="81" customHeight="1">
+      <c r="C35" s="10" t="s">
         <v>39</v>
       </c>
     </row>

--- a/OREI_files/40-herd data/Outlining 40-herd manuscript.xlsx
+++ b/OREI_files/40-herd data/Outlining 40-herd manuscript.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{C1D3857C-7890-4AC3-B3DF-E4E066F9738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6997877B-A2EF-43EA-A884-B4A4B19A6FFD}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="8_{C1D3857C-7890-4AC3-B3DF-E4E066F9738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92CA356-3C15-400A-A403-490F192B9107}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{17818DE0-B265-48C2-8735-0D191CA21533}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{17818DE0-B265-48C2-8735-0D191CA21533}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="model notes patel, obj 1" sheetId="2" r:id="rId2"/>
+    <sheet name="model notes patel, obj 2" sheetId="5" r:id="rId3"/>
+    <sheet name="herd-level var, cropped" sheetId="3" r:id="rId4"/>
+    <sheet name="herd-level var, full" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="212">
   <si>
     <t>Bulk tank milk</t>
   </si>
@@ -63,9 +74,6 @@
     <t>Producer-collected, from 7/21 herds</t>
   </si>
   <si>
-    <t>Amplicon sequencing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Survey data </t>
   </si>
   <si>
@@ -82,9 +90,6 @@
   </si>
   <si>
     <t>Sand (1)?, bedded pack (5), woodshavings (15)</t>
-  </si>
-  <si>
-    <t>Freestall (sand? or wood), tiestall, bedded pack</t>
   </si>
   <si>
     <t>Freestall with wood (5), bedded pack (5), tiestall with wood (10), freestall sand (1)</t>
@@ -135,9 +140,6 @@
       </rPr>
       <t>Relate hygiene practices, see how those affect outcomes of milk quality</t>
     </r>
-  </si>
-  <si>
-    <t>Outcome of milk quality with housing/bedding as predictor, mgmt factors other variables that influence milk quality outcomes (is it actually a function of glove use, number of times stalls cleaned/day? Are mgmt factors MORE predictive of milk quality outcomes, regardless of housing/bedding type) Go through survey datas and identify best precitors of outcome, build model up- relationship between mgmt factors and outcome</t>
   </si>
   <si>
     <t>If don't see effect, can't pinpoint if it's a power issue or truly no association (with small obs. study); left with descriptive study of small organic dairies and practices</t>
@@ -437,23 +439,711 @@
     </r>
   </si>
   <si>
-    <t>Milking hygiene practices, bedding management practices, herd information, hygiene scores</t>
-  </si>
-  <si>
     <t xml:space="preserve">DHIA data </t>
   </si>
   <si>
     <t xml:space="preserve">On lab computer?, in Excel sheet </t>
   </si>
   <si>
-    <t>New, chronic, cure, uninfected from test date closest to visit; pop avg and weighted avg SCC? Depends on reports</t>
+    <t>Amplicon sequencing (not ?yet? done)</t>
+  </si>
+  <si>
+    <t>Cow-level data (new, chronic, cure, uninfected from test date closest to visit); herd-level data (production, milk quality averages)</t>
+  </si>
+  <si>
+    <t>not really enough to do much with?</t>
+  </si>
+  <si>
+    <t>Not including herds from 10-herd</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Including herds from 10-herd: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(VT can have DHIA herd-level data but not ind cow-level, Lynd has no DHIA; both taken different season and year than other 21 herds)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sand (1)?, bedded pack (6), woodshavings (16)</t>
+  </si>
+  <si>
+    <t>Freestall (sand? or wood, 6), tiestall (11), bedded pack (6)</t>
+  </si>
+  <si>
+    <t>Freestall (sand? or wood, 6), tiestall (10), bedded pack (5)</t>
+  </si>
+  <si>
+    <t>Freestall with wood (5), bedded pack (6), tiestall with wood (11), freestall sand (1)</t>
+  </si>
+  <si>
+    <t>n=23 (kind of)</t>
+  </si>
+  <si>
+    <t>n=21 (including sand)</t>
+  </si>
+  <si>
+    <r>
+      <t>Outcome of milk quality with housing/bedding as predictor, mgmt factors other variables that influence milk quality outcomes</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (is it actually a function of glove use, number of times stalls cleaned/day? Are mgmt factors MORE predictive of milk quality outcomes, regardless of housing/bedding type?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Go through survey data and identify best predictors of outcome, build model up- relationship between mgmt factors and outcome</t>
+    </r>
+  </si>
+  <si>
+    <t>CLXM (monthly cumulative incidence of clinical mastitis)</t>
+  </si>
+  <si>
+    <t>CRON (chronic)</t>
+  </si>
+  <si>
+    <t>NIMI (new IMI)</t>
+  </si>
+  <si>
+    <t>305 ME</t>
+  </si>
+  <si>
+    <t>IMI</t>
+  </si>
+  <si>
+    <t>proportion of cows with score &gt;/=3</t>
+  </si>
+  <si>
+    <t>average DIM</t>
+  </si>
+  <si>
+    <t>AVLS (avg LS)</t>
+  </si>
+  <si>
+    <t>mean udder hygiene score</t>
+  </si>
+  <si>
+    <t>herd size</t>
+  </si>
+  <si>
+    <t>levels = new sand, recycled sand, manure solids, organic non-manure</t>
+  </si>
+  <si>
+    <t>BTM culture results</t>
+  </si>
+  <si>
+    <t>udder health measures</t>
+  </si>
+  <si>
+    <t>udder hygiene scores</t>
+  </si>
+  <si>
+    <t>herd traits</t>
+  </si>
+  <si>
+    <t>bedding type</t>
+  </si>
+  <si>
+    <t>dependent variables</t>
+  </si>
+  <si>
+    <t>explanatory variable</t>
+  </si>
+  <si>
+    <t>Vaccination for mastitis control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry-off routines </t>
+  </si>
+  <si>
+    <t>Protocols to treat mild, moderate, and severe clinical mastitis</t>
+  </si>
+  <si>
+    <t>Mastitis records (yes/no)</t>
+  </si>
+  <si>
+    <t>Routine culture of fresh cows (yes/no)</t>
+  </si>
+  <si>
+    <t>Routine culture of cows with elevated SCC (yes/no)</t>
+  </si>
+  <si>
+    <t>Routine culture of clinical mastitis cases (yes/no)</t>
+  </si>
+  <si>
+    <t>Clinical mastitis detection method (e.g., forestripping)</t>
+  </si>
+  <si>
+    <t>Mastitis control practices</t>
+  </si>
+  <si>
+    <t>Dock tails or trim switches</t>
+  </si>
+  <si>
+    <t>Clip or flame udders</t>
+  </si>
+  <si>
+    <t>Use of postdip</t>
+  </si>
+  <si>
+    <t>Use of individual towel to dry teats before milking unit attachment</t>
+  </si>
+  <si>
+    <t>Use of predip</t>
+  </si>
+  <si>
+    <t>Forestrip teats</t>
+  </si>
+  <si>
+    <t>Frequency of spraying off milking units with water between cows</t>
+  </si>
+  <si>
+    <t>Milking system</t>
+  </si>
+  <si>
+    <t>Milking frequency per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milking procedures </t>
+  </si>
+  <si>
+    <t>Frequency of raking or tilling bedding surface</t>
+  </si>
+  <si>
+    <t>If loose housing (dry lot or bedded pack):</t>
+  </si>
+  <si>
+    <t>Frequency of scraping alleyways</t>
+  </si>
+  <si>
+    <t>Use (and frequency/type of product) of bedding conditioner</t>
+  </si>
+  <si>
+    <t>Depth of bedding on lying surface</t>
+  </si>
+  <si>
+    <t>Frequency of adding new bedding material to resting area and stalls</t>
+  </si>
+  <si>
+    <t>Bedding management for lactating cows</t>
+  </si>
+  <si>
+    <t>Washed or not</t>
+  </si>
+  <si>
+    <t>Source of sand</t>
+  </si>
+  <si>
+    <t>If new sand:</t>
+  </si>
+  <si>
+    <t>Bedding material (new sand, recycled sand, manure solids, organic non-manure)</t>
+  </si>
+  <si>
+    <t>Bedding type (organic/inorganic)</t>
+  </si>
+  <si>
+    <t>Lactating cow bedding</t>
+  </si>
+  <si>
+    <t>Resting area (m2/cow)</t>
+  </si>
+  <si>
+    <t>Stall length from brisket board to back of curb</t>
+  </si>
+  <si>
+    <t>Average stocking density per pen (cows/stall)</t>
+  </si>
+  <si>
+    <t>Number of stalls per pen</t>
+  </si>
+  <si>
+    <t>Number of lactating cow pens</t>
+  </si>
+  <si>
+    <t>Presence of brisket locator</t>
+  </si>
+  <si>
+    <t>Lying surface</t>
+  </si>
+  <si>
+    <t>If freestall or tiestall housing:</t>
+  </si>
+  <si>
+    <t>Subjective assessment of air quality</t>
+  </si>
+  <si>
+    <r>
+      <t>Access to outside yard</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(could get more specific here)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lactating housing type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactating cow housing </t>
+  </si>
+  <si>
+    <t>Herd size (lactating/dry)</t>
+  </si>
+  <si>
+    <t>Predominant breed</t>
+  </si>
+  <si>
+    <t>Region (Northeast, Midwest, West, South)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm traits </t>
+  </si>
+  <si>
+    <t>Treatment of nulliparous heifers with antibiotics or teat sealants before first calving</t>
+  </si>
+  <si>
+    <t>Use of teat sealant</t>
+  </si>
+  <si>
+    <t>Use of long-acting intramammary antibiotic</t>
+  </si>
+  <si>
+    <t>Number of clinical mastitis events in the 30 d preceding sampling</t>
+  </si>
+  <si>
+    <t>Use of mechanical teat scrubber</t>
+  </si>
+  <si>
+    <t>Frequency of complete removal and replacement</t>
+  </si>
+  <si>
+    <t>If deep bedding systems:</t>
+  </si>
+  <si>
+    <t>Average time to reuse (days)</t>
+  </si>
+  <si>
+    <t>Mechanical drying (yes/no)</t>
+  </si>
+  <si>
+    <t>Screw press (yes/no)</t>
+  </si>
+  <si>
+    <t>Reclamation process (raw, digested, composted)</t>
+  </si>
+  <si>
+    <t>If manure solids:</t>
+  </si>
+  <si>
+    <t>Storage (open or under cover)</t>
+  </si>
+  <si>
+    <t>Average time to reuse</t>
+  </si>
+  <si>
+    <t>Method of recycling (passive sand lanes vs. mechanical)</t>
+  </si>
+  <si>
+    <t>If recycled sand:</t>
+  </si>
+  <si>
+    <t>Ventilation system</t>
+  </si>
+  <si>
+    <t>Access to outside yard</t>
+  </si>
+  <si>
+    <t>Conventional (vs. organic)</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>SSLO</t>
+  </si>
+  <si>
+    <t>Staph sp.</t>
+  </si>
+  <si>
+    <t>Klebsiella</t>
+  </si>
+  <si>
+    <t>Bacillus</t>
+  </si>
+  <si>
+    <t>Staph aureus</t>
+  </si>
+  <si>
+    <t>Mycoplasma</t>
+  </si>
+  <si>
+    <t>Coliforms</t>
+  </si>
+  <si>
+    <t>Bedding bacteria count</t>
+  </si>
+  <si>
+    <t>Dry matter</t>
+  </si>
+  <si>
+    <t>Organic matter</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Non-coli gram negs</t>
+  </si>
+  <si>
+    <t>dependent variable</t>
+  </si>
+  <si>
+    <t>Bedding type</t>
+  </si>
+  <si>
+    <t>Bedding age (days)</t>
+  </si>
+  <si>
+    <t>Various herd-level variables</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Herd characteristics</t>
+  </si>
+  <si>
+    <t>Parlor procedures</t>
+  </si>
+  <si>
+    <t>New sand</t>
+  </si>
+  <si>
+    <t>Recycled sand</t>
+  </si>
+  <si>
+    <t>Manure solids</t>
+  </si>
+  <si>
+    <t>Organic non-manure</t>
+  </si>
+  <si>
+    <t>explanatory variables</t>
+  </si>
+  <si>
+    <t>Herd</t>
+  </si>
+  <si>
+    <t>random effects</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>already entered</t>
+  </si>
+  <si>
+    <t>not entered? They all have access- could try and categorize this more and enter something</t>
+  </si>
+  <si>
+    <t>entered in data set?</t>
+  </si>
+  <si>
+    <t>see above</t>
+  </si>
+  <si>
+    <t>If wood shavings/sawdust/wood chips:</t>
+  </si>
+  <si>
+    <t>Kiln dried or fresh/raw</t>
+  </si>
+  <si>
+    <t>If using hay/straw:</t>
+  </si>
+  <si>
+    <t>Stored undercover or not</t>
+  </si>
+  <si>
+    <t>Straw or hay for bedding</t>
+  </si>
+  <si>
+    <t>Purchased or produced on farm</t>
+  </si>
+  <si>
+    <t>Is straw/hay dry or ensiled</t>
+  </si>
+  <si>
+    <t>not entering, only 1 sand sample (Davis uses new, washed, river sand, stored outside uncovered)</t>
+  </si>
+  <si>
+    <t>Lying surface (deep bedding, or mattress/concrete)</t>
+  </si>
+  <si>
+    <t>If free or tiestall:</t>
+  </si>
+  <si>
+    <t>Estimated depth of bedding in stalls</t>
+  </si>
+  <si>
+    <t>If alleyway behind cows:</t>
+  </si>
+  <si>
+    <t>How do you clean the alleyway</t>
+  </si>
+  <si>
+    <t>If gutter behind cows:</t>
+  </si>
+  <si>
+    <t>How often do you run getter cleaner</t>
+  </si>
+  <si>
+    <t>Freq. adding new bedding material to stalls</t>
+  </si>
+  <si>
+    <t>Freq. of scraping manure from back of stall surface</t>
+  </si>
+  <si>
+    <t>Freq. raking or tilling bedding surface</t>
+  </si>
+  <si>
+    <t>Freq. adding new bedding material</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frequency of spraying off milking units with water between cows </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(only have for parlor)</t>
+    </r>
+  </si>
+  <si>
+    <t>Consistency of glove use</t>
+  </si>
+  <si>
+    <t>Use of dry-off product</t>
+  </si>
+  <si>
+    <t>Vitamin E/selenium supplementation</t>
+  </si>
+  <si>
+    <t>Misc.</t>
+  </si>
+  <si>
+    <t>Routine culture of dry cows</t>
+  </si>
+  <si>
+    <r>
+      <t>Protocols to treat mild, moderate, and severe clinical mastitis</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (don't really have this)</t>
+    </r>
+  </si>
+  <si>
+    <t>IMI (% cows with LS ≥4.0)</t>
+  </si>
+  <si>
+    <t>NIMI (% new IMI)</t>
+  </si>
+  <si>
+    <t>CRON (% chronic)</t>
+  </si>
+  <si>
+    <r>
+      <t>Subjective assessment of air quality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(both producer's and Tucker's)</t>
+    </r>
+  </si>
+  <si>
+    <t>Depth of bedding for lying surface</t>
+  </si>
+  <si>
+    <t>Tiestalls: trainers?</t>
+  </si>
+  <si>
+    <t>Cows fed on pack?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Milking hygiene practices, bedding management practices, herd information, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hygiene scores</t>
+    </r>
+  </si>
+  <si>
+    <t>is this interesting/important vs. just using stocking density for freestalls?</t>
+  </si>
+  <si>
+    <t>not entering- all freestalls had just 1 pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stocking density for freestall </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Objective 1, mixed linear regression: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Describe BBC, bedding characteristics, udder hygiene scores, BTM quality, and udder health in herds using 4 bedding types. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For objective 1, mixed linear regression was used to investigate the direct relationship between bedding type (explanatory variable; NS, RS, MNS, or ON) and each of the following herd-level dependent variables...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Objective 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">describe the relationship between BBC and herd measures of UH. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Univariable linear regression initially used to describe unconditional relationships between each of the 5 UH dependent variables of interest and each of the BBC explanatory variables in unused or used bedding, bedding type, bedding age, and a variety of potential explanatory variables describing season, herd characteristics, housing, parlor procedures, and mastitis control practices. Any explanatory variable that was unconditionally associated with 1 or more of the 5 UH outcomes of interest at P &lt; 0.20 was offered into the final multivariable models investigating the relationship between BBC and UH. The only variable forced into these multivariable models wasbedding type. Herd was included as a random effect.</t>
+    </r>
+  </si>
+  <si>
+    <t>x (removed, not measured correctly)</t>
+  </si>
+  <si>
+    <t>Not yet removed, but probably should be (2.11.22)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,8 +1251,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFCC00CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFCC3399"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC3399"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,8 +1331,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -584,11 +1346,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -608,20 +1518,93 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8C12F92D-84F4-4F78-80EB-F566955107BC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFCC3399"/>
+      <color rgb="FFCC00CC"/>
+      <color rgb="FFFF33CC"/>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFCC00FF"/>
-      <color rgb="FFFF00FF"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -934,16 +1917,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B590773-AD2A-4AB3-9CD2-0FB11602F121}">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="31.36328125" customWidth="1"/>
     <col min="2" max="2" width="34.7265625" customWidth="1"/>
-    <col min="3" max="3" width="77.36328125" customWidth="1"/>
-    <col min="4" max="4" width="47.36328125" customWidth="1"/>
+    <col min="3" max="3" width="70.36328125" customWidth="1"/>
+    <col min="4" max="4" width="53.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
     <col min="18" max="18" width="144.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -957,51 +1941,51 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="R2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="R2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1011,21 +1995,21 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1035,45 +2019,45 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1081,126 +2065,1465 @@
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="27" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" ht="31" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="48.5" customHeight="1">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" customHeight="1">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="6" t="s">
+    <row r="30" spans="1:5">
+      <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="6" t="s">
+    <row r="31" spans="1:5" ht="39.5" customHeight="1">
+      <c r="C31" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="41.5" customHeight="1">
+      <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="1" t="s">
+    <row r="33" spans="3:3" ht="34.5" customHeight="1">
+      <c r="C33" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="39.5" customHeight="1">
-      <c r="C31" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="41.5" customHeight="1">
-      <c r="C32" s="7" t="s">
+    <row r="34" spans="3:3" ht="311" customHeight="1">
+      <c r="C34" s="8" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="33.5" customHeight="1">
-      <c r="C33" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" ht="294.5">
-      <c r="C34" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="81" customHeight="1">
       <c r="C35" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:L6"/>
     <mergeCell ref="M2:P6"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5AB51-5398-46EE-B356-1EF57FF8F11B}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="48.5" customHeight="1" thickBot="1">
+      <c r="A1" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:6" ht="9" customHeight="1"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40" customHeight="1">
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.5" customHeight="1">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29">
+      <c r="A12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BF25FC-776E-4C42-9161-70441A1EB9C2}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="85" customHeight="1" thickBot="1">
+      <c r="A1" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="32.5" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="22"/>
+      <c r="B10" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="22"/>
+      <c r="B11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFC753D-1A15-4700-BB6A-618C596F3A19}">
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1">
+      <c r="A2" s="32"/>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="32"/>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="32"/>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="36.5" customHeight="1">
+      <c r="C12" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19" customHeight="1">
+      <c r="C21" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19" customHeight="1">
+      <c r="C22" s="35"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43" customHeight="1">
+      <c r="B25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="34" customFormat="1">
+      <c r="B32" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" s="34" customFormat="1">
+      <c r="B33" s="15"/>
+      <c r="C33" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="34" customFormat="1">
+      <c r="B34" s="15"/>
+      <c r="C34" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="34" customFormat="1">
+      <c r="B35" s="15"/>
+      <c r="C35" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="34" customFormat="1">
+      <c r="B36" s="15"/>
+      <c r="C36" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="6"/>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39" customHeight="1">
+      <c r="C41" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="36.5" customHeight="1">
+      <c r="C42" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="38" customHeight="1">
+      <c r="C43" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="2"/>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="32" customHeight="1">
+      <c r="C48" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="32.5" customHeight="1">
+      <c r="C50" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="26.5" customHeight="1">
+      <c r="C51" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19" customHeight="1">
+      <c r="C52" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19" customHeight="1">
+      <c r="C54" s="48"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="29.5" customHeight="1">
+      <c r="B58" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="51" customHeight="1">
+      <c r="B74" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21EC080-C3C8-441E-BF0C-79CB6CCE0B18}">
+  <dimension ref="A1:C74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>